--- a/src/excel_template/cdQC/Screen Linearity format.xlsx
+++ b/src/excel_template/cdQC/Screen Linearity format.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohnishitakayuki/tool/src/excel_template/cdQC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohnishi.takayuki\Documents\02 pythonサンプルプログラム\tool\src\excel_template\cdQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97306B09-EC86-F840-86CB-A266055EEFC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="2780" windowWidth="23020" windowHeight="8960" tabRatio="883" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="2780" windowWidth="23020" windowHeight="8960" tabRatio="883" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="101" r:id="rId1"/>
@@ -80,8 +79,8 @@
     <definedName name="HTML5_8" hidden="1">"97/01/08"</definedName>
     <definedName name="HTML5_9" hidden="1">"メモリープロジェクト 壷井"</definedName>
     <definedName name="HTMLCount" hidden="1">5</definedName>
+    <definedName name="検収済">#REF!</definedName>
     <definedName name="合計">#REF!</definedName>
-    <definedName name="検収済">#REF!</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
@@ -270,11 +269,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -284,7 +283,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -292,7 +291,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -300,7 +299,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -327,7 +326,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="major"/>
@@ -336,7 +335,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -345,7 +344,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -354,7 +353,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -362,7 +361,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -370,7 +369,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -378,7 +377,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -386,7 +385,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -395,7 +394,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -404,7 +403,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -412,7 +411,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -421,7 +420,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -429,7 +428,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -438,7 +437,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -447,7 +446,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -455,7 +454,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -463,7 +462,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -478,14 +477,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -493,7 +492,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -510,7 +509,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -519,14 +518,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1314,7 +1313,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1334,164 +1333,164 @@
     </xf>
   </cellXfs>
   <cellStyles count="158">
-    <cellStyle name="20% - Accent1" xfId="63" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="67" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="71" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="75" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="79" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="83" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - アクセント 1 3" xfId="91" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - アクセント 1 4" xfId="92" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - アクセント 1 5" xfId="116" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - アクセント 1 6" xfId="117" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="20% - アクセント 1 7" xfId="118" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="20% - アクセント 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="20% - アクセント 2 3" xfId="93" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="20% - アクセント 2 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="20% - アクセント 2 5" xfId="119" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="20% - アクセント 2 6" xfId="120" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="20% - アクセント 2 7" xfId="121" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="20% - アクセント 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="20% - アクセント 3 3" xfId="95" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="20% - アクセント 3 4" xfId="96" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="20% - アクセント 3 5" xfId="122" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="20% - アクセント 3 6" xfId="123" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="20% - アクセント 3 7" xfId="124" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="20% - アクセント 4 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="20% - アクセント 4 3" xfId="97" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="20% - アクセント 4 4" xfId="98" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="20% - アクセント 4 5" xfId="125" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="20% - アクセント 4 6" xfId="126" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="20% - アクセント 4 7" xfId="127" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="20% - アクセント 5 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="20% - アクセント 5 3" xfId="99" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="20% - アクセント 5 4" xfId="100" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="20% - アクセント 5 5" xfId="128" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="20% - アクセント 5 6" xfId="129" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="20% - アクセント 5 7" xfId="130" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="20% - アクセント 6 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="20% - アクセント 6 3" xfId="101" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="20% - アクセント 6 4" xfId="102" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="20% - アクセント 6 5" xfId="131" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="20% - アクセント 6 6" xfId="132" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="20% - アクセント 6 7" xfId="133" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="40% - Accent1" xfId="64" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="68" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="72" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="76" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="80" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="84" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="40% - アクセント 1 3" xfId="103" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="40% - アクセント 1 4" xfId="104" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="40% - アクセント 1 5" xfId="134" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="40% - アクセント 1 6" xfId="135" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="40% - アクセント 1 7" xfId="136" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="40% - アクセント 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="40% - アクセント 2 3" xfId="105" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="40% - アクセント 2 4" xfId="106" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="40% - アクセント 2 5" xfId="137" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="40% - アクセント 2 6" xfId="138" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="40% - アクセント 2 7" xfId="139" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="40% - アクセント 3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="40% - アクセント 3 3" xfId="107" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="40% - アクセント 3 4" xfId="108" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="40% - アクセント 3 5" xfId="140" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="40% - アクセント 3 6" xfId="141" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="40% - アクセント 3 7" xfId="142" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="40% - アクセント 4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="40% - アクセント 4 3" xfId="109" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="40% - アクセント 4 4" xfId="110" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="40% - アクセント 4 5" xfId="143" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="40% - アクセント 4 6" xfId="144" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="40% - アクセント 4 7" xfId="145" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="40% - アクセント 5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="40% - アクセント 5 3" xfId="111" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="40% - アクセント 5 4" xfId="112" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="40% - アクセント 5 5" xfId="146" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="40% - アクセント 5 6" xfId="147" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="40% - アクセント 5 7" xfId="148" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="40% - アクセント 6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="40% - アクセント 6 3" xfId="113" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="40% - アクセント 6 4" xfId="114" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="40% - アクセント 6 5" xfId="149" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="40% - アクセント 6 6" xfId="150" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="40% - アクセント 6 7" xfId="151" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="60% - Accent1" xfId="65" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="69" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="73" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="77" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="81" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="85" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="60% - アクセント 2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="60% - アクセント 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="60% - アクセント 4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="60% - アクセント 5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="60% - アクセント 6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Accent1" xfId="62" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="66" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="70" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="74" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="78" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="82" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="52" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="56" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="58" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="60" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="51" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="47" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="48" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="49" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="50" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="54" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="57" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="53" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="55" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="46" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="61" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="59" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="アクセント 1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="アクセント 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="アクセント 3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="アクセント 4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="アクセント 5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="アクセント 6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="タイトル 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="チェック セル 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="チェックシート" xfId="1" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="どちらでもない 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="メモ 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="メモ 3" xfId="30" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="メモ 4" xfId="87" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="メモ 5" xfId="115" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="メモ 6" xfId="152" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="メモ 7" xfId="153" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="メモ 8" xfId="154" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="リンク セル 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="入力 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="出力 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="悪い 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="標準 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="標準 2 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="標準 3" xfId="44" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="標準 4" xfId="86" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="標準 5" xfId="88" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="標準 5 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="標準 6" xfId="155" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="標準 7" xfId="156" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="標準 8" xfId="157" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
-    <cellStyle name="良い 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
-    <cellStyle name="見出し 1 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="見出し 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="見出し 3 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="見出し 4 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="計算 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="説明文 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="警告文 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="集計 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="20% - アクセント 1" xfId="63" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 1 2" xfId="2"/>
+    <cellStyle name="20% - アクセント 1 3" xfId="91"/>
+    <cellStyle name="20% - アクセント 1 4" xfId="92"/>
+    <cellStyle name="20% - アクセント 1 5" xfId="116"/>
+    <cellStyle name="20% - アクセント 1 6" xfId="117"/>
+    <cellStyle name="20% - アクセント 1 7" xfId="118"/>
+    <cellStyle name="20% - アクセント 2" xfId="67" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 2 2" xfId="3"/>
+    <cellStyle name="20% - アクセント 2 3" xfId="93"/>
+    <cellStyle name="20% - アクセント 2 4" xfId="94"/>
+    <cellStyle name="20% - アクセント 2 5" xfId="119"/>
+    <cellStyle name="20% - アクセント 2 6" xfId="120"/>
+    <cellStyle name="20% - アクセント 2 7" xfId="121"/>
+    <cellStyle name="20% - アクセント 3" xfId="71" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 3 2" xfId="4"/>
+    <cellStyle name="20% - アクセント 3 3" xfId="95"/>
+    <cellStyle name="20% - アクセント 3 4" xfId="96"/>
+    <cellStyle name="20% - アクセント 3 5" xfId="122"/>
+    <cellStyle name="20% - アクセント 3 6" xfId="123"/>
+    <cellStyle name="20% - アクセント 3 7" xfId="124"/>
+    <cellStyle name="20% - アクセント 4" xfId="75" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 4 2" xfId="5"/>
+    <cellStyle name="20% - アクセント 4 3" xfId="97"/>
+    <cellStyle name="20% - アクセント 4 4" xfId="98"/>
+    <cellStyle name="20% - アクセント 4 5" xfId="125"/>
+    <cellStyle name="20% - アクセント 4 6" xfId="126"/>
+    <cellStyle name="20% - アクセント 4 7" xfId="127"/>
+    <cellStyle name="20% - アクセント 5" xfId="79" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 5 2" xfId="6"/>
+    <cellStyle name="20% - アクセント 5 3" xfId="99"/>
+    <cellStyle name="20% - アクセント 5 4" xfId="100"/>
+    <cellStyle name="20% - アクセント 5 5" xfId="128"/>
+    <cellStyle name="20% - アクセント 5 6" xfId="129"/>
+    <cellStyle name="20% - アクセント 5 7" xfId="130"/>
+    <cellStyle name="20% - アクセント 6" xfId="83" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 6 2" xfId="7"/>
+    <cellStyle name="20% - アクセント 6 3" xfId="101"/>
+    <cellStyle name="20% - アクセント 6 4" xfId="102"/>
+    <cellStyle name="20% - アクセント 6 5" xfId="131"/>
+    <cellStyle name="20% - アクセント 6 6" xfId="132"/>
+    <cellStyle name="20% - アクセント 6 7" xfId="133"/>
+    <cellStyle name="40% - アクセント 1" xfId="64" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 1 2" xfId="8"/>
+    <cellStyle name="40% - アクセント 1 3" xfId="103"/>
+    <cellStyle name="40% - アクセント 1 4" xfId="104"/>
+    <cellStyle name="40% - アクセント 1 5" xfId="134"/>
+    <cellStyle name="40% - アクセント 1 6" xfId="135"/>
+    <cellStyle name="40% - アクセント 1 7" xfId="136"/>
+    <cellStyle name="40% - アクセント 2" xfId="68" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 2 2" xfId="9"/>
+    <cellStyle name="40% - アクセント 2 3" xfId="105"/>
+    <cellStyle name="40% - アクセント 2 4" xfId="106"/>
+    <cellStyle name="40% - アクセント 2 5" xfId="137"/>
+    <cellStyle name="40% - アクセント 2 6" xfId="138"/>
+    <cellStyle name="40% - アクセント 2 7" xfId="139"/>
+    <cellStyle name="40% - アクセント 3" xfId="72" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 3 2" xfId="10"/>
+    <cellStyle name="40% - アクセント 3 3" xfId="107"/>
+    <cellStyle name="40% - アクセント 3 4" xfId="108"/>
+    <cellStyle name="40% - アクセント 3 5" xfId="140"/>
+    <cellStyle name="40% - アクセント 3 6" xfId="141"/>
+    <cellStyle name="40% - アクセント 3 7" xfId="142"/>
+    <cellStyle name="40% - アクセント 4" xfId="76" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 4 2" xfId="11"/>
+    <cellStyle name="40% - アクセント 4 3" xfId="109"/>
+    <cellStyle name="40% - アクセント 4 4" xfId="110"/>
+    <cellStyle name="40% - アクセント 4 5" xfId="143"/>
+    <cellStyle name="40% - アクセント 4 6" xfId="144"/>
+    <cellStyle name="40% - アクセント 4 7" xfId="145"/>
+    <cellStyle name="40% - アクセント 5" xfId="80" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 5 2" xfId="12"/>
+    <cellStyle name="40% - アクセント 5 3" xfId="111"/>
+    <cellStyle name="40% - アクセント 5 4" xfId="112"/>
+    <cellStyle name="40% - アクセント 5 5" xfId="146"/>
+    <cellStyle name="40% - アクセント 5 6" xfId="147"/>
+    <cellStyle name="40% - アクセント 5 7" xfId="148"/>
+    <cellStyle name="40% - アクセント 6" xfId="84" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 6 2" xfId="13"/>
+    <cellStyle name="40% - アクセント 6 3" xfId="113"/>
+    <cellStyle name="40% - アクセント 6 4" xfId="114"/>
+    <cellStyle name="40% - アクセント 6 5" xfId="149"/>
+    <cellStyle name="40% - アクセント 6 6" xfId="150"/>
+    <cellStyle name="40% - アクセント 6 7" xfId="151"/>
+    <cellStyle name="60% - アクセント 1" xfId="65" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 1 2" xfId="14"/>
+    <cellStyle name="60% - アクセント 2" xfId="69" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 2 2" xfId="15"/>
+    <cellStyle name="60% - アクセント 3" xfId="73" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 3 2" xfId="16"/>
+    <cellStyle name="60% - アクセント 4" xfId="77" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 4 2" xfId="17"/>
+    <cellStyle name="60% - アクセント 5" xfId="81" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 5 2" xfId="18"/>
+    <cellStyle name="60% - アクセント 6" xfId="85" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 6 2" xfId="19"/>
+    <cellStyle name="アクセント 1" xfId="62" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="アクセント 1 2" xfId="20"/>
+    <cellStyle name="アクセント 2" xfId="66" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="アクセント 2 2" xfId="21"/>
+    <cellStyle name="アクセント 3" xfId="70" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="アクセント 3 2" xfId="22"/>
+    <cellStyle name="アクセント 4" xfId="74" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="アクセント 4 2" xfId="23"/>
+    <cellStyle name="アクセント 5" xfId="78" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="アクセント 5 2" xfId="24"/>
+    <cellStyle name="アクセント 6" xfId="82" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="アクセント 6 2" xfId="25"/>
+    <cellStyle name="タイトル" xfId="46" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="タイトル 2" xfId="26"/>
+    <cellStyle name="チェック セル" xfId="58" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="チェック セル 2" xfId="27"/>
+    <cellStyle name="チェックシート" xfId="1"/>
+    <cellStyle name="どちらでもない" xfId="53" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="どちらでもない 2" xfId="28"/>
+    <cellStyle name="メモ 2" xfId="29"/>
+    <cellStyle name="メモ 3" xfId="30"/>
+    <cellStyle name="メモ 4" xfId="87"/>
+    <cellStyle name="メモ 5" xfId="115"/>
+    <cellStyle name="メモ 6" xfId="152"/>
+    <cellStyle name="メモ 7" xfId="153"/>
+    <cellStyle name="メモ 8" xfId="154"/>
+    <cellStyle name="リンク セル" xfId="57" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="リンク セル 2" xfId="31"/>
+    <cellStyle name="悪い" xfId="52" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="悪い 2" xfId="32"/>
+    <cellStyle name="計算" xfId="56" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="計算 2" xfId="33"/>
+    <cellStyle name="警告文" xfId="59" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="警告文 2" xfId="34"/>
+    <cellStyle name="見出し 1" xfId="47" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="見出し 1 2" xfId="35"/>
+    <cellStyle name="見出し 2" xfId="48" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="見出し 2 2" xfId="36"/>
+    <cellStyle name="見出し 3" xfId="49" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="見出し 3 2" xfId="37"/>
+    <cellStyle name="見出し 4" xfId="50" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="見出し 4 2" xfId="38"/>
+    <cellStyle name="集計" xfId="61" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="集計 2" xfId="39"/>
+    <cellStyle name="出力" xfId="55" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="出力 2" xfId="40"/>
+    <cellStyle name="説明文" xfId="60" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="説明文 2" xfId="41"/>
+    <cellStyle name="入力" xfId="54" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="入力 2" xfId="42"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="43"/>
+    <cellStyle name="標準 2 2" xfId="89"/>
+    <cellStyle name="標準 3" xfId="44"/>
+    <cellStyle name="標準 4" xfId="86"/>
+    <cellStyle name="標準 5" xfId="88"/>
+    <cellStyle name="標準 5 2" xfId="90"/>
+    <cellStyle name="標準 6" xfId="155"/>
+    <cellStyle name="標準 7" xfId="156"/>
+    <cellStyle name="標準 8" xfId="157"/>
+    <cellStyle name="良い" xfId="51" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="良い 2" xfId="45"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1515,7 +1514,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2030,7 +2029,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2055,7 +2054,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2069,7 +2068,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ja-JP"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2584,7 +2583,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2609,7 +2608,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ja-JP"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2702,7 +2701,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2777,23 +2776,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2829,23 +2811,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3021,18 +2986,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
@@ -3045,7 +3010,7 @@
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
     </row>
-    <row r="2" spans="1:16" ht="15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3080,7 +3045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3102,7 +3067,7 @@
       </c>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" ht="15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3124,7 +3089,7 @@
       </c>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" ht="15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3142,7 +3107,7 @@
       </c>
       <c r="P5" s="5"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3156,7 +3121,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3170,7 +3135,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3187,7 +3152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3201,7 +3166,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3215,7 +3180,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3229,7 +3194,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3243,7 +3208,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3257,7 +3222,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3271,7 +3236,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3285,7 +3250,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3299,7 +3264,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3313,7 +3278,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3327,7 +3292,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3341,7 +3306,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3355,7 +3320,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3369,7 +3334,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3383,7 +3348,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3397,7 +3362,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3411,7 +3376,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3425,7 +3390,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3439,7 +3404,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3453,7 +3418,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3467,7 +3432,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3481,7 +3446,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3495,7 +3460,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3509,7 +3474,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3523,7 +3488,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3537,7 +3502,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -3551,7 +3516,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -3565,7 +3530,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -3579,7 +3544,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -3593,7 +3558,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -3607,7 +3572,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -3621,7 +3586,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -3635,7 +3600,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -3649,7 +3614,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -3663,7 +3628,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -3677,7 +3642,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3691,7 +3656,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3705,7 +3670,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3719,7 +3684,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3733,7 +3698,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3747,7 +3712,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3761,7 +3726,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3775,7 +3740,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3789,7 +3754,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3803,7 +3768,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3817,7 +3782,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3831,7 +3796,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3845,7 +3810,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3859,7 +3824,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3873,7 +3838,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3887,7 +3852,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3901,7 +3866,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3915,7 +3880,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3929,7 +3894,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3943,7 +3908,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3957,7 +3922,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3971,7 +3936,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3985,7 +3950,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3999,7 +3964,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4013,7 +3978,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4027,7 +3992,7 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4041,7 +4006,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4055,7 +4020,7 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4069,7 +4034,7 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4083,7 +4048,7 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4097,7 +4062,7 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4111,7 +4076,7 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4125,7 +4090,7 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4139,7 +4104,7 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4153,7 +4118,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4167,7 +4132,7 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4181,7 +4146,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4195,7 +4160,7 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4209,7 +4174,7 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4223,7 +4188,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -4231,7 +4196,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -4239,7 +4204,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -4247,7 +4212,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -4255,7 +4220,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -4263,7 +4228,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -4271,7 +4236,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -4279,7 +4244,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -4287,7 +4252,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -4295,7 +4260,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -4303,7 +4268,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -4311,7 +4276,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -4319,7 +4284,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -4327,7 +4292,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -4335,7 +4300,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="2:7">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -4343,7 +4308,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="2:7">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -4351,7 +4316,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="2:7">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -4359,7 +4324,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="2:7">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -4367,7 +4332,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="2:7">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -4375,7 +4340,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="2:7">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -4383,7 +4348,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="2:7">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -4391,7 +4356,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="2:7">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -4399,7 +4364,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="2:7">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -4407,7 +4372,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="2:7">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -4415,7 +4380,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="2:7">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -4423,7 +4388,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="2:7">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4431,7 +4396,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="2:7">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4439,7 +4404,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="2:7">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4447,7 +4412,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="2:7">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -4455,7 +4420,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="2:7">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4463,7 +4428,7 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="2:7">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4471,7 +4436,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="2:7">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4479,7 +4444,7 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="2:7">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4487,7 +4452,7 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="2:7">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4495,7 +4460,7 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="2:7">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4503,7 +4468,7 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="2:7">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -4511,7 +4476,7 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="2:7">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4519,7 +4484,7 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="2:7">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4527,7 +4492,7 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="2:7">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4535,7 +4500,7 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="2:7">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4543,7 +4508,7 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="2:7">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4551,7 +4516,7 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="2:7">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4559,7 +4524,7 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="2:7">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -4567,7 +4532,7 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="2:7">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4575,7 +4540,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="2:7">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -4583,7 +4548,7 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="2:7">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4591,7 +4556,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="2:7">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4599,7 +4564,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="2:7">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4607,7 +4572,7 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="2:7">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -4615,7 +4580,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="2:7">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4623,7 +4588,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="2:7">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -4631,7 +4596,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="2:7">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -4639,7 +4604,7 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="2:7">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -4647,7 +4612,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="2:7">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -4655,7 +4620,7 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="2:7">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -4663,7 +4628,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="2:7">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -4671,7 +4636,7 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
     </row>
-    <row r="139" spans="2:7">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -4679,7 +4644,7 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
     </row>
-    <row r="140" spans="2:7">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -4687,7 +4652,7 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" spans="2:7">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -4695,7 +4660,7 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="2:7">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -4703,7 +4668,7 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="2:7">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -4711,7 +4676,7 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="2:7">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -4719,7 +4684,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="2:7">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -4727,7 +4692,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="2:7">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -4735,7 +4700,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="2:7">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -4743,7 +4708,7 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" spans="2:7">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -4751,7 +4716,7 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="2:7">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -4759,7 +4724,7 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="2:7">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -4767,7 +4732,7 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="2:7">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -4775,7 +4740,7 @@
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="2:7">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -4783,7 +4748,7 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="2:7">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -4791,7 +4756,7 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="2:7">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -4799,7 +4764,7 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="2:7">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -4807,7 +4772,7 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
     </row>
-    <row r="156" spans="2:7">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -4815,7 +4780,7 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
     </row>
-    <row r="157" spans="2:7">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -4823,7 +4788,7 @@
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="2:7">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -4831,7 +4796,7 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="2:7">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -4839,7 +4804,7 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
     </row>
-    <row r="160" spans="2:7">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -4847,7 +4812,7 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
     </row>
-    <row r="161" spans="2:7">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -4855,7 +4820,7 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
     </row>
-    <row r="162" spans="2:7">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -4863,7 +4828,7 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
     </row>
-    <row r="163" spans="2:7">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -4871,7 +4836,7 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
     </row>
-    <row r="164" spans="2:7">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -4879,7 +4844,7 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" spans="2:7">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -4887,7 +4852,7 @@
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
     </row>
-    <row r="166" spans="2:7">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -4895,7 +4860,7 @@
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
     </row>
-    <row r="167" spans="2:7">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -4903,7 +4868,7 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
     </row>
-    <row r="168" spans="2:7">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -4911,7 +4876,7 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
     </row>
-    <row r="169" spans="2:7">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -4919,7 +4884,7 @@
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
     </row>
-    <row r="170" spans="2:7">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -4927,7 +4892,7 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
     </row>
-    <row r="171" spans="2:7">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -4935,7 +4900,7 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
     </row>
-    <row r="172" spans="2:7">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -4943,7 +4908,7 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
     </row>
-    <row r="173" spans="2:7">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -4951,7 +4916,7 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
     </row>
-    <row r="174" spans="2:7">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -4959,7 +4924,7 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
     </row>
-    <row r="175" spans="2:7">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -4967,7 +4932,7 @@
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
     </row>
-    <row r="176" spans="2:7">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4975,7 +4940,7 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
     </row>
-    <row r="177" spans="2:7">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -4983,7 +4948,7 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
     </row>
-    <row r="178" spans="2:7">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4991,7 +4956,7 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
     </row>
-    <row r="179" spans="2:7">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -4999,7 +4964,7 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
     </row>
-    <row r="180" spans="2:7">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -5007,7 +4972,7 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
     </row>
-    <row r="181" spans="2:7">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -5015,7 +4980,7 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
     </row>
-    <row r="182" spans="2:7">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -5023,7 +4988,7 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
     </row>
-    <row r="183" spans="2:7">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -5031,7 +4996,7 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
     </row>
-    <row r="184" spans="2:7">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -5039,7 +5004,7 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
     </row>
-    <row r="185" spans="2:7">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -5047,7 +5012,7 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
     </row>
-    <row r="186" spans="2:7">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -5055,7 +5020,7 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
     </row>
-    <row r="187" spans="2:7">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -5063,7 +5028,7 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
     </row>
-    <row r="188" spans="2:7">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -5071,7 +5036,7 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
     </row>
-    <row r="189" spans="2:7">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -5079,7 +5044,7 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
     </row>
-    <row r="190" spans="2:7">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -5087,7 +5052,7 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
     </row>
-    <row r="191" spans="2:7">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -5095,7 +5060,7 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
     </row>
-    <row r="192" spans="2:7">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -5103,7 +5068,7 @@
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
     </row>
-    <row r="193" spans="2:7">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -5111,7 +5076,7 @@
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
     </row>
-    <row r="194" spans="2:7">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -5119,7 +5084,7 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
     </row>
-    <row r="195" spans="2:7">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -5127,7 +5092,7 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
     </row>
-    <row r="196" spans="2:7">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -5135,7 +5100,7 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
     </row>
-    <row r="197" spans="2:7">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -5143,7 +5108,7 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
     </row>
-    <row r="198" spans="2:7">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -5151,7 +5116,7 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
     </row>
-    <row r="199" spans="2:7">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -5159,7 +5124,7 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
     </row>
-    <row r="200" spans="2:7">
+    <row r="200" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -5167,7 +5132,7 @@
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
     </row>
-    <row r="201" spans="2:7">
+    <row r="201" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -5175,7 +5140,7 @@
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
     </row>
-    <row r="202" spans="2:7">
+    <row r="202" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -5183,7 +5148,7 @@
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
     </row>
-    <row r="203" spans="2:7">
+    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -5191,7 +5156,7 @@
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
     </row>
-    <row r="204" spans="2:7">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -5199,7 +5164,7 @@
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
     </row>
-    <row r="205" spans="2:7">
+    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -5207,7 +5172,7 @@
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
     </row>
-    <row r="206" spans="2:7">
+    <row r="206" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -5215,7 +5180,7 @@
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
     </row>
-    <row r="207" spans="2:7">
+    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -5223,7 +5188,7 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
     </row>
-    <row r="208" spans="2:7">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -5231,7 +5196,7 @@
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
     </row>
-    <row r="209" spans="2:7">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -5239,7 +5204,7 @@
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
     </row>
-    <row r="210" spans="2:7">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -5247,7 +5212,7 @@
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
     </row>
-    <row r="211" spans="2:7">
+    <row r="211" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -5255,7 +5220,7 @@
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
     </row>
-    <row r="212" spans="2:7">
+    <row r="212" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -5263,7 +5228,7 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
     </row>
-    <row r="213" spans="2:7">
+    <row r="213" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -5271,7 +5236,7 @@
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
     </row>
-    <row r="214" spans="2:7">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -5279,7 +5244,7 @@
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
     </row>
-    <row r="215" spans="2:7">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -5287,7 +5252,7 @@
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
     </row>
-    <row r="216" spans="2:7">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -5295,7 +5260,7 @@
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
     </row>
-    <row r="217" spans="2:7">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -5303,7 +5268,7 @@
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
     </row>
-    <row r="218" spans="2:7">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -5311,7 +5276,7 @@
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
     </row>
-    <row r="219" spans="2:7">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -5319,7 +5284,7 @@
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
     </row>
-    <row r="220" spans="2:7">
+    <row r="220" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -5327,7 +5292,7 @@
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
     </row>
-    <row r="221" spans="2:7">
+    <row r="221" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -5335,7 +5300,7 @@
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
     </row>
-    <row r="222" spans="2:7">
+    <row r="222" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -5343,7 +5308,7 @@
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
     </row>
-    <row r="223" spans="2:7">
+    <row r="223" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -5351,7 +5316,7 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="2:7">
+    <row r="224" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -5359,7 +5324,7 @@
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
     </row>
-    <row r="225" spans="2:7">
+    <row r="225" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -5367,7 +5332,7 @@
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
     </row>
-    <row r="226" spans="2:7">
+    <row r="226" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -5375,7 +5340,7 @@
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
     </row>
-    <row r="227" spans="2:7">
+    <row r="227" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -5383,7 +5348,7 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
     </row>
-    <row r="228" spans="2:7">
+    <row r="228" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -5391,7 +5356,7 @@
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
     </row>
-    <row r="229" spans="2:7">
+    <row r="229" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -5399,7 +5364,7 @@
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
     </row>
-    <row r="230" spans="2:7">
+    <row r="230" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -5407,7 +5372,7 @@
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
     </row>
-    <row r="231" spans="2:7">
+    <row r="231" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -5415,7 +5380,7 @@
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
     </row>
-    <row r="232" spans="2:7">
+    <row r="232" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -5423,7 +5388,7 @@
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
     </row>
-    <row r="233" spans="2:7">
+    <row r="233" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -5431,7 +5396,7 @@
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
     </row>
-    <row r="234" spans="2:7">
+    <row r="234" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -5439,7 +5404,7 @@
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
     </row>
-    <row r="235" spans="2:7">
+    <row r="235" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -5447,7 +5412,7 @@
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
     </row>
-    <row r="236" spans="2:7">
+    <row r="236" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -5455,7 +5420,7 @@
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
     </row>
-    <row r="237" spans="2:7">
+    <row r="237" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -5463,7 +5428,7 @@
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
     </row>
-    <row r="238" spans="2:7">
+    <row r="238" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -5471,7 +5436,7 @@
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
     </row>
-    <row r="239" spans="2:7">
+    <row r="239" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -5479,7 +5444,7 @@
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
     </row>
-    <row r="240" spans="2:7">
+    <row r="240" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -5487,7 +5452,7 @@
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
     </row>
-    <row r="241" spans="2:7">
+    <row r="241" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -5495,7 +5460,7 @@
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
     </row>
-    <row r="242" spans="2:7">
+    <row r="242" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -5503,7 +5468,7 @@
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
     </row>
-    <row r="243" spans="2:7">
+    <row r="243" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -5511,7 +5476,7 @@
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
     </row>
-    <row r="244" spans="2:7">
+    <row r="244" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -5519,7 +5484,7 @@
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
     </row>
-    <row r="245" spans="2:7">
+    <row r="245" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
@@ -5527,7 +5492,7 @@
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
     </row>
-    <row r="246" spans="2:7">
+    <row r="246" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -5535,7 +5500,7 @@
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
     </row>
-    <row r="247" spans="2:7">
+    <row r="247" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -5543,7 +5508,7 @@
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
     </row>
-    <row r="248" spans="2:7">
+    <row r="248" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -5551,7 +5516,7 @@
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
     </row>
-    <row r="249" spans="2:7">
+    <row r="249" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
@@ -5559,7 +5524,7 @@
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
     </row>
-    <row r="250" spans="2:7">
+    <row r="250" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -5567,7 +5532,7 @@
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
     </row>
-    <row r="251" spans="2:7">
+    <row r="251" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -5575,7 +5540,7 @@
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
     </row>
-    <row r="252" spans="2:7">
+    <row r="252" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -5583,7 +5548,7 @@
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
     </row>
-    <row r="253" spans="2:7">
+    <row r="253" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -5591,7 +5556,7 @@
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
     </row>
-    <row r="254" spans="2:7">
+    <row r="254" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -5599,7 +5564,7 @@
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
     </row>
-    <row r="255" spans="2:7">
+    <row r="255" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -5607,7 +5572,7 @@
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
     </row>
-    <row r="256" spans="2:7">
+    <row r="256" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -5615,7 +5580,7 @@
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
     </row>
-    <row r="257" spans="2:7">
+    <row r="257" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
@@ -5623,7 +5588,7 @@
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
     </row>
-    <row r="258" spans="2:7">
+    <row r="258" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -5631,7 +5596,7 @@
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
     </row>
-    <row r="259" spans="2:7">
+    <row r="259" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -5639,7 +5604,7 @@
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
     </row>
-    <row r="260" spans="2:7">
+    <row r="260" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
@@ -5647,7 +5612,7 @@
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
     </row>
-    <row r="261" spans="2:7">
+    <row r="261" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
@@ -5655,7 +5620,7 @@
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
     </row>
-    <row r="262" spans="2:7">
+    <row r="262" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
@@ -5663,7 +5628,7 @@
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
     </row>
-    <row r="263" spans="2:7">
+    <row r="263" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
@@ -5671,7 +5636,7 @@
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
     </row>
-    <row r="264" spans="2:7">
+    <row r="264" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
@@ -5679,7 +5644,7 @@
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
     </row>
-    <row r="265" spans="2:7">
+    <row r="265" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
@@ -5687,7 +5652,7 @@
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
     </row>
-    <row r="266" spans="2:7">
+    <row r="266" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -5695,7 +5660,7 @@
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
     </row>
-    <row r="267" spans="2:7">
+    <row r="267" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
@@ -5703,7 +5668,7 @@
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
     </row>
-    <row r="268" spans="2:7">
+    <row r="268" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -5711,7 +5676,7 @@
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
     </row>
-    <row r="269" spans="2:7">
+    <row r="269" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
@@ -5719,7 +5684,7 @@
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
     </row>
-    <row r="270" spans="2:7">
+    <row r="270" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -5727,7 +5692,7 @@
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
     </row>
-    <row r="271" spans="2:7">
+    <row r="271" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
@@ -5735,7 +5700,7 @@
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
     </row>
-    <row r="272" spans="2:7">
+    <row r="272" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
@@ -5743,7 +5708,7 @@
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
     </row>
-    <row r="273" spans="2:7">
+    <row r="273" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
@@ -5751,7 +5716,7 @@
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
     </row>
-    <row r="274" spans="2:7">
+    <row r="274" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
@@ -5759,7 +5724,7 @@
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
     </row>
-    <row r="275" spans="2:7">
+    <row r="275" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
@@ -5767,7 +5732,7 @@
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
     </row>
-    <row r="276" spans="2:7">
+    <row r="276" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
@@ -5775,7 +5740,7 @@
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
     </row>
-    <row r="277" spans="2:7">
+    <row r="277" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
@@ -5783,7 +5748,7 @@
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
     </row>
-    <row r="278" spans="2:7">
+    <row r="278" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
@@ -5791,7 +5756,7 @@
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
     </row>
-    <row r="279" spans="2:7">
+    <row r="279" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
@@ -5799,7 +5764,7 @@
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
     </row>
-    <row r="280" spans="2:7">
+    <row r="280" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -5807,7 +5772,7 @@
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
     </row>
-    <row r="281" spans="2:7">
+    <row r="281" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
@@ -5815,7 +5780,7 @@
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
     </row>
-    <row r="282" spans="2:7">
+    <row r="282" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
@@ -5823,7 +5788,7 @@
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
     </row>
-    <row r="283" spans="2:7">
+    <row r="283" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
@@ -5831,7 +5796,7 @@
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
     </row>
-    <row r="284" spans="2:7">
+    <row r="284" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
@@ -5839,7 +5804,7 @@
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
     </row>
-    <row r="285" spans="2:7">
+    <row r="285" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
@@ -5847,7 +5812,7 @@
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
     </row>
-    <row r="286" spans="2:7">
+    <row r="286" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
@@ -5855,7 +5820,7 @@
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
     </row>
-    <row r="287" spans="2:7">
+    <row r="287" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -5863,7 +5828,7 @@
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
     </row>
-    <row r="288" spans="2:7">
+    <row r="288" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
@@ -5871,7 +5836,7 @@
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
     </row>
-    <row r="289" spans="2:7">
+    <row r="289" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
@@ -5879,7 +5844,7 @@
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
     </row>
-    <row r="290" spans="2:7">
+    <row r="290" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -5887,7 +5852,7 @@
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
     </row>
-    <row r="291" spans="2:7">
+    <row r="291" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
@@ -5895,7 +5860,7 @@
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
     </row>
-    <row r="292" spans="2:7">
+    <row r="292" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
@@ -5903,7 +5868,7 @@
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
     </row>
-    <row r="293" spans="2:7">
+    <row r="293" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
@@ -5911,7 +5876,7 @@
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
     </row>
-    <row r="294" spans="2:7">
+    <row r="294" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
@@ -5919,7 +5884,7 @@
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
     </row>
-    <row r="295" spans="2:7">
+    <row r="295" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
@@ -5927,7 +5892,7 @@
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
     </row>
-    <row r="296" spans="2:7">
+    <row r="296" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
@@ -5935,7 +5900,7 @@
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
     </row>
-    <row r="297" spans="2:7">
+    <row r="297" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
@@ -5943,7 +5908,7 @@
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
     </row>
-    <row r="298" spans="2:7">
+    <row r="298" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
@@ -5951,7 +5916,7 @@
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
     </row>
-    <row r="299" spans="2:7">
+    <row r="299" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
@@ -5959,7 +5924,7 @@
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
     </row>
-    <row r="300" spans="2:7">
+    <row r="300" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
@@ -5967,7 +5932,7 @@
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
     </row>
-    <row r="301" spans="2:7">
+    <row r="301" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
@@ -5975,7 +5940,7 @@
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
     </row>
-    <row r="302" spans="2:7">
+    <row r="302" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
@@ -5993,19 +5958,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AY302"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="10" width="9" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" customWidth="1"/>
+    <col min="12" max="12" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="15">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
@@ -6024,7 +5989,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -6144,7 +6109,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6314,7 +6279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6485,7 +6450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6656,7 +6621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6822,7 +6787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6988,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7145,7 +7110,7 @@
       </c>
       <c r="AU8" s="8"/>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -7266,7 +7231,7 @@
       </c>
       <c r="AU9" s="8"/>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -7387,7 +7352,7 @@
       </c>
       <c r="AU10" s="8"/>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -7541,7 +7506,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -7713,7 +7678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -7884,7 +7849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -7977,7 +7942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8122,7 +8087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8288,7 +8253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:44">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8444,7 +8409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:44">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8564,7 +8529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:44">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -8684,7 +8649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:44">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -8804,7 +8769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:44">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -8924,7 +8889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:44">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -9044,7 +9009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:44">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -9164,7 +9129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:44">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -9283,7 +9248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:44">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -9403,7 +9368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:44">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -9523,7 +9488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:44">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -9564,7 +9529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:44">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -9663,7 +9628,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:44">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -9783,7 +9748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:44">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -9903,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:44">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -10023,7 +9988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:44">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -10143,7 +10108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -10263,7 +10228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -10383,7 +10348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -10502,7 +10467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -10622,7 +10587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -10742,7 +10707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -10862,7 +10827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -10982,7 +10947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:33">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -11023,7 +10988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:33">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -11122,7 +11087,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:33">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -11242,7 +11207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:33">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -11362,7 +11327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:33">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -11482,7 +11447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -11602,7 +11567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -11721,7 +11686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -11840,7 +11805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -11959,7 +11924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:33">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -12078,7 +12043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:33">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -12197,7 +12162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:33">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -12316,7 +12281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:33">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -12435,7 +12400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:33">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -12476,7 +12441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:33">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -12517,7 +12482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:33">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -12558,7 +12523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:33">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -12599,7 +12564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:33">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -12640,7 +12605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:33">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -12681,7 +12646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:33">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -12722,7 +12687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:33">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -12763,7 +12728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:33">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -12804,7 +12769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:33">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -12845,7 +12810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:33">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -12886,7 +12851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:33">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -12927,7 +12892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -12968,7 +12933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -13009,7 +12974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -13050,7 +13015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -13091,7 +13056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -13132,7 +13097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -13173,7 +13138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -13214,7 +13179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -13255,7 +13220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -13296,7 +13261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -13337,7 +13302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -13378,7 +13343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -13419,7 +13384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -13460,7 +13425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -13501,7 +13466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -13542,7 +13507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -13583,7 +13548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -13624,7 +13589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -13665,7 +13630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -13673,7 +13638,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -13681,7 +13646,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -13689,7 +13654,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -13697,7 +13662,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -13705,7 +13670,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -13713,7 +13678,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -13721,7 +13686,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -13729,7 +13694,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -13737,7 +13702,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -13745,7 +13710,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -13753,7 +13718,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -13761,7 +13726,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -13769,7 +13734,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -13777,7 +13742,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="2:7">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -13785,7 +13750,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="2:7">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -13793,7 +13758,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="2:7">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -13801,7 +13766,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="2:7">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -13809,7 +13774,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="2:7">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -13817,7 +13782,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="2:7">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -13825,7 +13790,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="2:7">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -13833,7 +13798,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="2:7">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -13841,7 +13806,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="2:7">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -13849,7 +13814,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="2:7">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -13857,7 +13822,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="2:7">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -13865,7 +13830,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="2:7">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -13873,7 +13838,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="2:7">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -13881,7 +13846,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="2:7">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -13889,7 +13854,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="2:7">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -13897,7 +13862,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="2:7">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -13905,7 +13870,7 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="2:7">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -13913,7 +13878,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="2:7">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -13921,7 +13886,7 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="2:7">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -13929,7 +13894,7 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="2:7">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -13937,7 +13902,7 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="2:7">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -13945,7 +13910,7 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="2:7">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -13953,7 +13918,7 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="2:7">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -13961,7 +13926,7 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="2:7">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -13969,7 +13934,7 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="2:7">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -13977,7 +13942,7 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="2:7">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -13985,7 +13950,7 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="2:7">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -13993,7 +13958,7 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="2:7">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -14001,7 +13966,7 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="2:7">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -14009,7 +13974,7 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="2:7">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -14017,7 +13982,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="2:7">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -14025,7 +13990,7 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="2:7">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -14033,7 +13998,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="2:7">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -14041,7 +14006,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="2:7">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -14049,7 +14014,7 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="2:7">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -14057,7 +14022,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="2:7">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -14065,7 +14030,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="2:7">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -14073,7 +14038,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="2:7">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -14081,7 +14046,7 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="2:7">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -14089,7 +14054,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="2:7">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -14097,7 +14062,7 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="2:7">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -14105,7 +14070,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="2:7">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -14113,7 +14078,7 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
     </row>
-    <row r="139" spans="2:7">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -14121,7 +14086,7 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
     </row>
-    <row r="140" spans="2:7">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -14129,7 +14094,7 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" spans="2:7">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -14137,7 +14102,7 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="2:7">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -14145,7 +14110,7 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="2:7">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -14153,7 +14118,7 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="2:7">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -14161,7 +14126,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="2:7">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -14169,7 +14134,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="2:7">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -14177,7 +14142,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="2:7">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -14185,7 +14150,7 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" spans="2:7">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -14193,7 +14158,7 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="2:7">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -14201,7 +14166,7 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="2:7">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -14209,7 +14174,7 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="2:7">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -14217,7 +14182,7 @@
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="2:7">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -14225,7 +14190,7 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="2:7">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -14233,7 +14198,7 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="2:7">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -14241,7 +14206,7 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="2:7">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -14249,7 +14214,7 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
     </row>
-    <row r="156" spans="2:7">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -14257,7 +14222,7 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
     </row>
-    <row r="157" spans="2:7">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -14265,7 +14230,7 @@
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="2:7">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -14273,7 +14238,7 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="2:7">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -14281,7 +14246,7 @@
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
     </row>
-    <row r="160" spans="2:7">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -14289,7 +14254,7 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
     </row>
-    <row r="161" spans="2:7">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -14297,7 +14262,7 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
     </row>
-    <row r="162" spans="2:7">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -14305,7 +14270,7 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
     </row>
-    <row r="163" spans="2:7">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -14313,7 +14278,7 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
     </row>
-    <row r="164" spans="2:7">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -14321,7 +14286,7 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" spans="2:7">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -14329,7 +14294,7 @@
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
     </row>
-    <row r="166" spans="2:7">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -14337,7 +14302,7 @@
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
     </row>
-    <row r="167" spans="2:7">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -14345,7 +14310,7 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
     </row>
-    <row r="168" spans="2:7">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -14353,7 +14318,7 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
     </row>
-    <row r="169" spans="2:7">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -14361,7 +14326,7 @@
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
     </row>
-    <row r="170" spans="2:7">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -14369,7 +14334,7 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
     </row>
-    <row r="171" spans="2:7">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -14377,7 +14342,7 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
     </row>
-    <row r="172" spans="2:7">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -14385,7 +14350,7 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
     </row>
-    <row r="173" spans="2:7">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -14393,7 +14358,7 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
     </row>
-    <row r="174" spans="2:7">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -14401,7 +14366,7 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
     </row>
-    <row r="175" spans="2:7">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -14409,7 +14374,7 @@
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
     </row>
-    <row r="176" spans="2:7">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -14417,7 +14382,7 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
     </row>
-    <row r="177" spans="2:7">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -14425,7 +14390,7 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
     </row>
-    <row r="178" spans="2:7">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -14433,7 +14398,7 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
     </row>
-    <row r="179" spans="2:7">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -14441,7 +14406,7 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
     </row>
-    <row r="180" spans="2:7">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -14449,7 +14414,7 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
     </row>
-    <row r="181" spans="2:7">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -14457,7 +14422,7 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
     </row>
-    <row r="182" spans="2:7">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -14465,7 +14430,7 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
     </row>
-    <row r="183" spans="2:7">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -14473,7 +14438,7 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
     </row>
-    <row r="184" spans="2:7">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -14481,7 +14446,7 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
     </row>
-    <row r="185" spans="2:7">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -14489,7 +14454,7 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
     </row>
-    <row r="186" spans="2:7">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -14497,7 +14462,7 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
     </row>
-    <row r="187" spans="2:7">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -14505,7 +14470,7 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
     </row>
-    <row r="188" spans="2:7">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -14513,7 +14478,7 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
     </row>
-    <row r="189" spans="2:7">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -14521,7 +14486,7 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
     </row>
-    <row r="190" spans="2:7">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -14529,7 +14494,7 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
     </row>
-    <row r="191" spans="2:7">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -14537,7 +14502,7 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
     </row>
-    <row r="192" spans="2:7">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -14545,7 +14510,7 @@
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
     </row>
-    <row r="193" spans="2:7">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -14553,7 +14518,7 @@
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
     </row>
-    <row r="194" spans="2:7">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -14561,7 +14526,7 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
     </row>
-    <row r="195" spans="2:7">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -14569,7 +14534,7 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
     </row>
-    <row r="196" spans="2:7">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -14577,7 +14542,7 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
     </row>
-    <row r="197" spans="2:7">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -14585,7 +14550,7 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
     </row>
-    <row r="198" spans="2:7">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -14593,7 +14558,7 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
     </row>
-    <row r="199" spans="2:7">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -14601,7 +14566,7 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
     </row>
-    <row r="200" spans="2:7">
+    <row r="200" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -14609,7 +14574,7 @@
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
     </row>
-    <row r="201" spans="2:7">
+    <row r="201" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -14617,7 +14582,7 @@
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
     </row>
-    <row r="202" spans="2:7">
+    <row r="202" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -14625,7 +14590,7 @@
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
     </row>
-    <row r="203" spans="2:7">
+    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -14633,7 +14598,7 @@
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
     </row>
-    <row r="204" spans="2:7">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -14641,7 +14606,7 @@
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
     </row>
-    <row r="205" spans="2:7">
+    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -14649,7 +14614,7 @@
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
     </row>
-    <row r="206" spans="2:7">
+    <row r="206" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -14657,7 +14622,7 @@
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
     </row>
-    <row r="207" spans="2:7">
+    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -14665,7 +14630,7 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
     </row>
-    <row r="208" spans="2:7">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -14673,7 +14638,7 @@
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
     </row>
-    <row r="209" spans="2:7">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -14681,7 +14646,7 @@
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
     </row>
-    <row r="210" spans="2:7">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -14689,7 +14654,7 @@
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
     </row>
-    <row r="211" spans="2:7">
+    <row r="211" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -14697,7 +14662,7 @@
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
     </row>
-    <row r="212" spans="2:7">
+    <row r="212" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -14705,7 +14670,7 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
     </row>
-    <row r="213" spans="2:7">
+    <row r="213" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -14713,7 +14678,7 @@
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
     </row>
-    <row r="214" spans="2:7">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -14721,7 +14686,7 @@
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
     </row>
-    <row r="215" spans="2:7">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -14729,7 +14694,7 @@
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
     </row>
-    <row r="216" spans="2:7">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -14737,7 +14702,7 @@
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
     </row>
-    <row r="217" spans="2:7">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -14745,7 +14710,7 @@
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
     </row>
-    <row r="218" spans="2:7">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -14753,7 +14718,7 @@
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
     </row>
-    <row r="219" spans="2:7">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -14761,7 +14726,7 @@
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
     </row>
-    <row r="220" spans="2:7">
+    <row r="220" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -14769,7 +14734,7 @@
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
     </row>
-    <row r="221" spans="2:7">
+    <row r="221" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -14777,7 +14742,7 @@
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
     </row>
-    <row r="222" spans="2:7">
+    <row r="222" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -14785,7 +14750,7 @@
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
     </row>
-    <row r="223" spans="2:7">
+    <row r="223" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -14793,7 +14758,7 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="2:7">
+    <row r="224" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -14801,7 +14766,7 @@
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
     </row>
-    <row r="225" spans="2:7">
+    <row r="225" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -14809,7 +14774,7 @@
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
     </row>
-    <row r="226" spans="2:7">
+    <row r="226" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -14817,7 +14782,7 @@
       <c r="F226" s="1"/>
       <c r="G226" s="1"/>
     </row>
-    <row r="227" spans="2:7">
+    <row r="227" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -14825,7 +14790,7 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
     </row>
-    <row r="228" spans="2:7">
+    <row r="228" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -14833,7 +14798,7 @@
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
     </row>
-    <row r="229" spans="2:7">
+    <row r="229" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -14841,7 +14806,7 @@
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
     </row>
-    <row r="230" spans="2:7">
+    <row r="230" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -14849,7 +14814,7 @@
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
     </row>
-    <row r="231" spans="2:7">
+    <row r="231" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -14857,7 +14822,7 @@
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
     </row>
-    <row r="232" spans="2:7">
+    <row r="232" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -14865,7 +14830,7 @@
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
     </row>
-    <row r="233" spans="2:7">
+    <row r="233" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -14873,7 +14838,7 @@
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
     </row>
-    <row r="234" spans="2:7">
+    <row r="234" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -14881,7 +14846,7 @@
       <c r="F234" s="1"/>
       <c r="G234" s="1"/>
     </row>
-    <row r="235" spans="2:7">
+    <row r="235" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -14889,7 +14854,7 @@
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
     </row>
-    <row r="236" spans="2:7">
+    <row r="236" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -14897,7 +14862,7 @@
       <c r="F236" s="1"/>
       <c r="G236" s="1"/>
     </row>
-    <row r="237" spans="2:7">
+    <row r="237" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -14905,7 +14870,7 @@
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
     </row>
-    <row r="238" spans="2:7">
+    <row r="238" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -14913,7 +14878,7 @@
       <c r="F238" s="1"/>
       <c r="G238" s="1"/>
     </row>
-    <row r="239" spans="2:7">
+    <row r="239" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -14921,7 +14886,7 @@
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
     </row>
-    <row r="240" spans="2:7">
+    <row r="240" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -14929,7 +14894,7 @@
       <c r="F240" s="1"/>
       <c r="G240" s="1"/>
     </row>
-    <row r="241" spans="2:7">
+    <row r="241" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -14937,7 +14902,7 @@
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
     </row>
-    <row r="242" spans="2:7">
+    <row r="242" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -14945,7 +14910,7 @@
       <c r="F242" s="1"/>
       <c r="G242" s="1"/>
     </row>
-    <row r="243" spans="2:7">
+    <row r="243" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -14953,7 +14918,7 @@
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
     </row>
-    <row r="244" spans="2:7">
+    <row r="244" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -14961,7 +14926,7 @@
       <c r="F244" s="1"/>
       <c r="G244" s="1"/>
     </row>
-    <row r="245" spans="2:7">
+    <row r="245" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
@@ -14969,7 +14934,7 @@
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
     </row>
-    <row r="246" spans="2:7">
+    <row r="246" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -14977,7 +14942,7 @@
       <c r="F246" s="1"/>
       <c r="G246" s="1"/>
     </row>
-    <row r="247" spans="2:7">
+    <row r="247" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -14985,7 +14950,7 @@
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
     </row>
-    <row r="248" spans="2:7">
+    <row r="248" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -14993,7 +14958,7 @@
       <c r="F248" s="1"/>
       <c r="G248" s="1"/>
     </row>
-    <row r="249" spans="2:7">
+    <row r="249" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
@@ -15001,7 +14966,7 @@
       <c r="F249" s="1"/>
       <c r="G249" s="1"/>
     </row>
-    <row r="250" spans="2:7">
+    <row r="250" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -15009,7 +14974,7 @@
       <c r="F250" s="1"/>
       <c r="G250" s="1"/>
     </row>
-    <row r="251" spans="2:7">
+    <row r="251" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -15017,7 +14982,7 @@
       <c r="F251" s="1"/>
       <c r="G251" s="1"/>
     </row>
-    <row r="252" spans="2:7">
+    <row r="252" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -15025,7 +14990,7 @@
       <c r="F252" s="1"/>
       <c r="G252" s="1"/>
     </row>
-    <row r="253" spans="2:7">
+    <row r="253" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -15033,7 +14998,7 @@
       <c r="F253" s="1"/>
       <c r="G253" s="1"/>
     </row>
-    <row r="254" spans="2:7">
+    <row r="254" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -15041,7 +15006,7 @@
       <c r="F254" s="1"/>
       <c r="G254" s="1"/>
     </row>
-    <row r="255" spans="2:7">
+    <row r="255" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -15049,7 +15014,7 @@
       <c r="F255" s="1"/>
       <c r="G255" s="1"/>
     </row>
-    <row r="256" spans="2:7">
+    <row r="256" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -15057,7 +15022,7 @@
       <c r="F256" s="1"/>
       <c r="G256" s="1"/>
     </row>
-    <row r="257" spans="2:7">
+    <row r="257" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
@@ -15065,7 +15030,7 @@
       <c r="F257" s="1"/>
       <c r="G257" s="1"/>
     </row>
-    <row r="258" spans="2:7">
+    <row r="258" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -15073,7 +15038,7 @@
       <c r="F258" s="1"/>
       <c r="G258" s="1"/>
     </row>
-    <row r="259" spans="2:7">
+    <row r="259" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -15081,7 +15046,7 @@
       <c r="F259" s="1"/>
       <c r="G259" s="1"/>
     </row>
-    <row r="260" spans="2:7">
+    <row r="260" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
@@ -15089,7 +15054,7 @@
       <c r="F260" s="1"/>
       <c r="G260" s="1"/>
     </row>
-    <row r="261" spans="2:7">
+    <row r="261" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
@@ -15097,7 +15062,7 @@
       <c r="F261" s="1"/>
       <c r="G261" s="1"/>
     </row>
-    <row r="262" spans="2:7">
+    <row r="262" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
@@ -15105,7 +15070,7 @@
       <c r="F262" s="1"/>
       <c r="G262" s="1"/>
     </row>
-    <row r="263" spans="2:7">
+    <row r="263" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
@@ -15113,7 +15078,7 @@
       <c r="F263" s="1"/>
       <c r="G263" s="1"/>
     </row>
-    <row r="264" spans="2:7">
+    <row r="264" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
@@ -15121,7 +15086,7 @@
       <c r="F264" s="1"/>
       <c r="G264" s="1"/>
     </row>
-    <row r="265" spans="2:7">
+    <row r="265" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
@@ -15129,7 +15094,7 @@
       <c r="F265" s="1"/>
       <c r="G265" s="1"/>
     </row>
-    <row r="266" spans="2:7">
+    <row r="266" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -15137,7 +15102,7 @@
       <c r="F266" s="1"/>
       <c r="G266" s="1"/>
     </row>
-    <row r="267" spans="2:7">
+    <row r="267" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
@@ -15145,7 +15110,7 @@
       <c r="F267" s="1"/>
       <c r="G267" s="1"/>
     </row>
-    <row r="268" spans="2:7">
+    <row r="268" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -15153,7 +15118,7 @@
       <c r="F268" s="1"/>
       <c r="G268" s="1"/>
     </row>
-    <row r="269" spans="2:7">
+    <row r="269" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
@@ -15161,7 +15126,7 @@
       <c r="F269" s="1"/>
       <c r="G269" s="1"/>
     </row>
-    <row r="270" spans="2:7">
+    <row r="270" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -15169,7 +15134,7 @@
       <c r="F270" s="1"/>
       <c r="G270" s="1"/>
     </row>
-    <row r="271" spans="2:7">
+    <row r="271" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
@@ -15177,7 +15142,7 @@
       <c r="F271" s="1"/>
       <c r="G271" s="1"/>
     </row>
-    <row r="272" spans="2:7">
+    <row r="272" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
@@ -15185,7 +15150,7 @@
       <c r="F272" s="1"/>
       <c r="G272" s="1"/>
     </row>
-    <row r="273" spans="2:7">
+    <row r="273" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
@@ -15193,7 +15158,7 @@
       <c r="F273" s="1"/>
       <c r="G273" s="1"/>
     </row>
-    <row r="274" spans="2:7">
+    <row r="274" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
@@ -15201,7 +15166,7 @@
       <c r="F274" s="1"/>
       <c r="G274" s="1"/>
     </row>
-    <row r="275" spans="2:7">
+    <row r="275" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
@@ -15209,7 +15174,7 @@
       <c r="F275" s="1"/>
       <c r="G275" s="1"/>
     </row>
-    <row r="276" spans="2:7">
+    <row r="276" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
@@ -15217,7 +15182,7 @@
       <c r="F276" s="1"/>
       <c r="G276" s="1"/>
     </row>
-    <row r="277" spans="2:7">
+    <row r="277" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
@@ -15225,7 +15190,7 @@
       <c r="F277" s="1"/>
       <c r="G277" s="1"/>
     </row>
-    <row r="278" spans="2:7">
+    <row r="278" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
@@ -15233,7 +15198,7 @@
       <c r="F278" s="1"/>
       <c r="G278" s="1"/>
     </row>
-    <row r="279" spans="2:7">
+    <row r="279" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
@@ -15241,7 +15206,7 @@
       <c r="F279" s="1"/>
       <c r="G279" s="1"/>
     </row>
-    <row r="280" spans="2:7">
+    <row r="280" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -15249,7 +15214,7 @@
       <c r="F280" s="1"/>
       <c r="G280" s="1"/>
     </row>
-    <row r="281" spans="2:7">
+    <row r="281" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
@@ -15257,7 +15222,7 @@
       <c r="F281" s="1"/>
       <c r="G281" s="1"/>
     </row>
-    <row r="282" spans="2:7">
+    <row r="282" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
@@ -15265,7 +15230,7 @@
       <c r="F282" s="1"/>
       <c r="G282" s="1"/>
     </row>
-    <row r="283" spans="2:7">
+    <row r="283" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
@@ -15273,7 +15238,7 @@
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
     </row>
-    <row r="284" spans="2:7">
+    <row r="284" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
@@ -15281,7 +15246,7 @@
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
     </row>
-    <row r="285" spans="2:7">
+    <row r="285" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
@@ -15289,7 +15254,7 @@
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
     </row>
-    <row r="286" spans="2:7">
+    <row r="286" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
@@ -15297,7 +15262,7 @@
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
     </row>
-    <row r="287" spans="2:7">
+    <row r="287" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -15305,7 +15270,7 @@
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
     </row>
-    <row r="288" spans="2:7">
+    <row r="288" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="1"/>
@@ -15313,7 +15278,7 @@
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
     </row>
-    <row r="289" spans="2:7">
+    <row r="289" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="D289" s="1"/>
@@ -15321,7 +15286,7 @@
       <c r="F289" s="1"/>
       <c r="G289" s="1"/>
     </row>
-    <row r="290" spans="2:7">
+    <row r="290" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="1"/>
@@ -15329,7 +15294,7 @@
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
     </row>
-    <row r="291" spans="2:7">
+    <row r="291" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="D291" s="1"/>
@@ -15337,7 +15302,7 @@
       <c r="F291" s="1"/>
       <c r="G291" s="1"/>
     </row>
-    <row r="292" spans="2:7">
+    <row r="292" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="1"/>
@@ -15345,7 +15310,7 @@
       <c r="F292" s="1"/>
       <c r="G292" s="1"/>
     </row>
-    <row r="293" spans="2:7">
+    <row r="293" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="1"/>
@@ -15353,7 +15318,7 @@
       <c r="F293" s="1"/>
       <c r="G293" s="1"/>
     </row>
-    <row r="294" spans="2:7">
+    <row r="294" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="1"/>
@@ -15361,7 +15326,7 @@
       <c r="F294" s="1"/>
       <c r="G294" s="1"/>
     </row>
-    <row r="295" spans="2:7">
+    <row r="295" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="1"/>
@@ -15369,7 +15334,7 @@
       <c r="F295" s="1"/>
       <c r="G295" s="1"/>
     </row>
-    <row r="296" spans="2:7">
+    <row r="296" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="1"/>
@@ -15377,7 +15342,7 @@
       <c r="F296" s="1"/>
       <c r="G296" s="1"/>
     </row>
-    <row r="297" spans="2:7">
+    <row r="297" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
@@ -15385,7 +15350,7 @@
       <c r="F297" s="1"/>
       <c r="G297" s="1"/>
     </row>
-    <row r="298" spans="2:7">
+    <row r="298" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="1"/>
@@ -15393,7 +15358,7 @@
       <c r="F298" s="1"/>
       <c r="G298" s="1"/>
     </row>
-    <row r="299" spans="2:7">
+    <row r="299" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="1"/>
@@ -15401,7 +15366,7 @@
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
     </row>
-    <row r="300" spans="2:7">
+    <row r="300" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="1"/>
@@ -15409,7 +15374,7 @@
       <c r="F300" s="1"/>
       <c r="G300" s="1"/>
     </row>
-    <row r="301" spans="2:7">
+    <row r="301" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="1"/>
@@ -15417,7 +15382,7 @@
       <c r="F301" s="1"/>
       <c r="G301" s="1"/>
     </row>
-    <row r="302" spans="2:7">
+    <row r="302" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="D302" s="1"/>
@@ -15436,27 +15401,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.1640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="9"/>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="15" t="s">
         <v>35</v>
@@ -15466,7 +15431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="15" t="s">
         <v>36</v>
@@ -15476,16 +15441,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="8"/>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="2" t="s">
         <v>40</v>
@@ -15495,7 +15460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="15" t="s">
         <v>10</v>
@@ -15508,16 +15473,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="15"/>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
         <v>43</v>
       </c>
@@ -15533,18 +15498,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
@@ -15564,7 +15529,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <f>Summary!C8</f>
         <v>0</v>
